--- a/crawler/contentxls/content cc.xlsx
+++ b/crawler/contentxls/content cc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spike\Django\minibondforstaging\crawler\contentxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\minibondforstaging\crawler\contentxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74645371-CD87-410B-B825-D9C69BD7E560}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="Sheet6" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$228</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="906">
   <si>
     <t>title</t>
   </si>
@@ -2854,7 +2855,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2911,7 +2912,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2986,6 +2987,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3021,6 +3039,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3196,11 +3231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J259"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3238,16 +3273,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>878</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>43</v>
@@ -3255,16 +3290,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -3272,16 +3307,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>43</v>
@@ -3289,16 +3324,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>43</v>
@@ -3306,16 +3341,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -3323,16 +3358,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>43</v>
@@ -3340,16 +3375,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>43</v>
@@ -3357,16 +3392,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>43</v>
@@ -3374,16 +3409,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>43</v>
@@ -3391,16 +3426,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>759</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>879</v>
+        <v>489</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>43</v>
@@ -3408,16 +3443,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>43</v>
@@ -3425,16 +3460,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>43</v>
@@ -3442,16 +3477,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>43</v>
@@ -3459,16 +3494,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>43</v>
@@ -3476,16 +3511,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>43</v>
@@ -3493,16 +3528,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17">
         <v>43</v>
@@ -3510,16 +3545,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>43</v>
@@ -3527,16 +3562,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>760</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s">
-        <v>880</v>
+        <v>497</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>43</v>
@@ -3544,16 +3579,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>797</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
-        <v>881</v>
+        <v>498</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>43</v>
@@ -3561,16 +3596,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>43</v>
@@ -3578,16 +3613,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>43</v>
@@ -3595,16 +3630,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>43</v>
@@ -3612,16 +3647,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G24">
         <v>43</v>
@@ -3629,16 +3664,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="B25" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>43</v>
@@ -3646,16 +3681,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>43</v>
@@ -3663,16 +3698,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>476</v>
+        <v>885</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>43</v>
@@ -3680,16 +3715,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>761</v>
+        <v>887</v>
       </c>
       <c r="B28" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G28">
         <v>43</v>
@@ -3697,16 +3732,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="B29" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>43</v>
@@ -3714,16 +3749,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="B30" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>43</v>
@@ -3731,16 +3766,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B31" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>43</v>
@@ -3748,16 +3783,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="B32" t="s">
-        <v>884</v>
+        <v>508</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G32">
         <v>43</v>
@@ -3765,13 +3800,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="B33" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>50</v>
@@ -3782,16 +3817,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="B34" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G34">
         <v>43</v>
@@ -3799,16 +3834,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="B35" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35">
         <v>43</v>
@@ -3816,16 +3851,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="B36" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <v>43</v>
@@ -3833,16 +3868,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="B37" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>43</v>
@@ -3850,16 +3885,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>43</v>
@@ -3867,16 +3902,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="B39" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>43</v>
@@ -3884,16 +3919,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>487</v>
+        <v>764</v>
       </c>
       <c r="B40" t="s">
-        <v>487</v>
+        <v>889</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>43</v>
@@ -3901,16 +3936,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="B41" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41">
         <v>43</v>
@@ -3918,16 +3953,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="B42" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>43</v>
@@ -3935,16 +3970,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="B43" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>43</v>
@@ -3952,16 +3987,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="B44" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G44">
         <v>43</v>
@@ -3969,16 +4004,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>492</v>
+        <v>765</v>
       </c>
       <c r="B45" t="s">
-        <v>492</v>
+        <v>890</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>43</v>
@@ -3986,16 +4021,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="B46" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>43</v>
@@ -4003,16 +4038,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="B47" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G47">
         <v>43</v>
@@ -4020,16 +4055,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="B48" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>43</v>
@@ -4037,16 +4072,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="B49" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G49">
         <v>43</v>
@@ -4054,16 +4089,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="B50" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>43</v>
@@ -4071,16 +4106,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="B51" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>43</v>
@@ -4088,16 +4123,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="B52" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>43</v>
@@ -4105,16 +4140,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="B53" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>43</v>
@@ -4122,16 +4157,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="B54" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G54">
         <v>43</v>
@@ -4139,16 +4174,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="B55" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G55">
         <v>43</v>
@@ -4156,16 +4191,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B56" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>43</v>
@@ -4173,16 +4208,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>43</v>
@@ -4190,16 +4225,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>885</v>
+        <v>532</v>
       </c>
       <c r="B58" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G58">
         <v>43</v>
@@ -4207,16 +4242,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>887</v>
+        <v>533</v>
       </c>
       <c r="B59" t="s">
-        <v>888</v>
+        <v>533</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G59">
         <v>43</v>
@@ -4224,16 +4259,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="B60" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G60">
         <v>43</v>
@@ -4241,16 +4276,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="B61" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>43</v>
@@ -4258,16 +4293,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>763</v>
+        <v>536</v>
       </c>
       <c r="B62" t="s">
-        <v>886</v>
+        <v>536</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>43</v>
@@ -4275,16 +4310,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <v>43</v>
@@ -4292,16 +4327,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="B64" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>43</v>
@@ -4309,16 +4344,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="B65" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G65">
         <v>43</v>
@@ -4326,16 +4361,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="B66" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>43</v>
@@ -4343,16 +4378,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="B67" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>43</v>
@@ -4360,16 +4395,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="B68" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G68">
         <v>43</v>
@@ -4377,16 +4412,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="G69">
         <v>43</v>
@@ -4394,16 +4429,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="B70" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>43</v>
@@ -4411,16 +4446,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>764</v>
+        <v>545</v>
       </c>
       <c r="B71" t="s">
-        <v>889</v>
+        <v>545</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G71">
         <v>43</v>
@@ -4428,16 +4463,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="B72" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G72">
         <v>43</v>
@@ -4445,16 +4480,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="B73" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <v>43</v>
@@ -4462,16 +4497,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>518</v>
+        <v>891</v>
       </c>
       <c r="B74" t="s">
-        <v>518</v>
+        <v>892</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G74">
         <v>43</v>
@@ -4479,16 +4514,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>519</v>
+        <v>893</v>
       </c>
       <c r="B75" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G75">
         <v>43</v>
@@ -4496,16 +4531,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>765</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s">
-        <v>890</v>
+        <v>549</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>43</v>
@@ -4513,16 +4548,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="B77" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G77">
         <v>43</v>
@@ -4530,16 +4565,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="B78" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G78">
         <v>43</v>
@@ -4547,16 +4582,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="B79" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>43</v>
@@ -4564,16 +4599,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="B80" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>43</v>
@@ -4581,16 +4616,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="B81" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>43</v>
@@ -4598,16 +4633,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="B82" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>43</v>
@@ -4615,16 +4650,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="B83" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G83">
         <v>43</v>
@@ -4632,16 +4667,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>527</v>
+        <v>766</v>
       </c>
       <c r="B84" t="s">
-        <v>527</v>
+        <v>766</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G84">
         <v>43</v>
@@ -4649,16 +4684,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="B85" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G85">
         <v>43</v>
@@ -4666,16 +4701,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86">
         <v>43</v>
@@ -4683,16 +4718,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G87">
         <v>43</v>
@@ -4700,16 +4735,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>531</v>
+        <v>894</v>
       </c>
       <c r="B88" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G88">
         <v>43</v>
@@ -4717,16 +4752,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G89">
         <v>43</v>
@@ -4734,16 +4769,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="B90" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G90">
         <v>43</v>
@@ -4751,16 +4786,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="B91" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>43</v>
@@ -4768,16 +4803,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="B92" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G92">
         <v>43</v>
@@ -4785,16 +4820,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="B93" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G93">
         <v>43</v>
@@ -4802,16 +4837,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>537</v>
+        <v>689</v>
       </c>
       <c r="B94" t="s">
-        <v>537</v>
+        <v>689</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>43</v>
@@ -4819,16 +4854,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>43</v>
@@ -4836,16 +4871,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="B96" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G96">
         <v>43</v>
@@ -4853,16 +4888,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="B97" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G97">
         <v>43</v>
@@ -4870,16 +4905,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="B98" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>43</v>
@@ -4887,16 +4922,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="B99" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99">
         <v>43</v>
@@ -4904,16 +4939,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="B100" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G100">
         <v>43</v>
@@ -4921,16 +4956,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="B101" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>43</v>
@@ -4938,16 +4973,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G102">
         <v>43</v>
@@ -4955,16 +4990,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>546</v>
+        <v>695</v>
       </c>
       <c r="B103" t="s">
-        <v>546</v>
+        <v>695</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G103">
         <v>43</v>
@@ -4972,16 +5007,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="B104" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>43</v>
@@ -4989,16 +5024,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>891</v>
+        <v>575</v>
       </c>
       <c r="B105" t="s">
-        <v>892</v>
+        <v>575</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G105">
         <v>43</v>
@@ -5006,16 +5041,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>893</v>
+        <v>576</v>
       </c>
       <c r="B106" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>43</v>
@@ -5023,16 +5058,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="B107" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G107">
         <v>43</v>
@@ -5040,16 +5075,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="B108" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G108">
         <v>43</v>
@@ -5057,16 +5092,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="B109" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G109">
         <v>43</v>
@@ -5074,16 +5109,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="B110" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G110">
         <v>43</v>
@@ -5091,16 +5126,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="B111" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G111">
         <v>43</v>
@@ -5108,16 +5143,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B112" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G112">
         <v>43</v>
@@ -5125,16 +5160,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="B113" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>43</v>
@@ -5142,16 +5177,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="B114" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>43</v>
@@ -5159,16 +5194,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>766</v>
+        <v>585</v>
       </c>
       <c r="B115" t="s">
-        <v>766</v>
+        <v>585</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>43</v>
@@ -5176,16 +5211,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="B116" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G116">
         <v>43</v>
@@ -5193,16 +5228,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="B117" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G117">
         <v>43</v>
@@ -5210,16 +5245,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="B118" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G118">
         <v>43</v>
@@ -5227,16 +5262,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>894</v>
+        <v>589</v>
       </c>
       <c r="B119" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>43</v>
@@ -5244,16 +5279,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="B120" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G120">
         <v>43</v>
@@ -5261,16 +5296,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>562</v>
+        <v>767</v>
       </c>
       <c r="B121" t="s">
-        <v>562</v>
+        <v>767</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G121">
         <v>43</v>
@@ -5278,16 +5313,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="B122" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G122">
         <v>43</v>
@@ -5295,16 +5330,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="B123" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>43</v>
@@ -5312,16 +5347,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="B124" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G124">
         <v>43</v>
@@ -5329,16 +5364,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>689</v>
+        <v>594</v>
       </c>
       <c r="B125" t="s">
-        <v>689</v>
+        <v>594</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>43</v>
@@ -5346,16 +5381,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="B126" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G126">
         <v>43</v>
@@ -5363,16 +5398,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="B127" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G127">
         <v>43</v>
@@ -5380,16 +5415,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="B128" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G128">
         <v>43</v>
@@ -5397,16 +5432,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="B129" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G129">
         <v>43</v>
@@ -5414,16 +5449,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="B130" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>43</v>
@@ -5431,16 +5466,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="B131" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G131">
         <v>43</v>
@@ -5448,16 +5483,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="B132" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G132">
         <v>43</v>
@@ -5465,16 +5500,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="B133" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>43</v>
@@ -5482,16 +5517,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>695</v>
+        <v>603</v>
       </c>
       <c r="B134" t="s">
-        <v>695</v>
+        <v>603</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>43</v>
@@ -5499,16 +5534,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="B135" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G135">
         <v>43</v>
@@ -5516,16 +5551,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="B136" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G136">
         <v>43</v>
@@ -5533,16 +5568,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="B137" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>43</v>
@@ -5550,10 +5585,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="B138" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5567,16 +5602,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="B139" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G139">
         <v>43</v>
@@ -5584,16 +5619,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="B140" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>43</v>
@@ -5601,16 +5636,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="B141" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G141">
         <v>43</v>
@@ -5618,16 +5653,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="B142" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G142">
         <v>43</v>
@@ -5635,16 +5670,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="B143" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G143">
         <v>43</v>
@@ -5652,16 +5687,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="B144" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G144">
         <v>43</v>
@@ -5669,16 +5704,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B145" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G145">
         <v>43</v>
@@ -5686,16 +5721,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="B146" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>43</v>
@@ -5703,16 +5738,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>586</v>
+        <v>768</v>
       </c>
       <c r="B147" t="s">
-        <v>586</v>
+        <v>895</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>43</v>
@@ -5720,16 +5755,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="B148" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>43</v>
@@ -5737,16 +5772,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>588</v>
+        <v>691</v>
       </c>
       <c r="B149" t="s">
-        <v>588</v>
+        <v>691</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>43</v>
@@ -5754,16 +5789,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="B150" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>43</v>
@@ -5771,16 +5806,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="B151" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>43</v>
@@ -5788,16 +5823,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B152" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G152">
         <v>43</v>
@@ -5805,16 +5840,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="B153" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G153">
         <v>43</v>
@@ -5822,10 +5857,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="B154" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -5839,16 +5874,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="B155" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G155">
         <v>43</v>
@@ -5856,16 +5891,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="B156" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G156">
         <v>43</v>
@@ -5873,16 +5908,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>595</v>
+        <v>897</v>
       </c>
       <c r="B157" t="s">
-        <v>595</v>
+        <v>896</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G157">
         <v>43</v>
@@ -5890,10 +5925,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="B158" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -5907,16 +5942,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="B159" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G159">
         <v>43</v>
@@ -5924,16 +5959,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="B160" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G160">
         <v>43</v>
@@ -5941,16 +5976,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="B161" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G161">
         <v>43</v>
@@ -5958,16 +5993,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="B162" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G162">
         <v>43</v>
@@ -5975,16 +6010,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="B163" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>43</v>
@@ -5992,16 +6027,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="B164" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>43</v>
@@ -6009,16 +6044,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="B165" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G165">
         <v>43</v>
@@ -6026,16 +6061,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="B166" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G166">
         <v>43</v>
@@ -6043,16 +6078,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="B167" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G167">
         <v>43</v>
@@ -6060,16 +6095,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="B168" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G168">
         <v>43</v>
@@ -6077,16 +6112,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="B169" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G169">
         <v>43</v>
@@ -6094,16 +6129,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="B170" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G170">
         <v>43</v>
@@ -6111,16 +6146,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="B171" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G171">
         <v>43</v>
@@ -6128,16 +6163,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="B172" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>43</v>
@@ -6145,16 +6180,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B173" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G173">
         <v>43</v>
@@ -6162,16 +6197,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="B174" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G174">
         <v>43</v>
@@ -6179,16 +6214,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="B175" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G175">
         <v>43</v>
@@ -6196,16 +6231,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="B176" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G176">
         <v>43</v>
@@ -6213,16 +6248,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="B177" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G177">
         <v>43</v>
@@ -6230,16 +6265,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>768</v>
+        <v>642</v>
       </c>
       <c r="B178" t="s">
-        <v>895</v>
+        <v>642</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G178">
         <v>43</v>
@@ -6247,16 +6282,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="B179" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G179">
         <v>43</v>
@@ -6264,16 +6299,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="B180" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="D180">
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>43</v>
@@ -6281,16 +6316,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="B181" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G181">
         <v>43</v>
@@ -6298,16 +6333,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="B182" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G182">
         <v>43</v>
@@ -6315,16 +6350,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>769</v>
+        <v>647</v>
       </c>
       <c r="B183" t="s">
-        <v>769</v>
+        <v>647</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G183">
         <v>43</v>
@@ -6332,16 +6367,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="B184" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G184">
         <v>43</v>
@@ -6349,16 +6384,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="B185" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G185">
         <v>43</v>
@@ -6366,16 +6401,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>621</v>
+        <v>898</v>
       </c>
       <c r="B186" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G186">
         <v>43</v>
@@ -6383,16 +6418,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="B187" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>43</v>
@@ -6400,16 +6435,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>897</v>
+        <v>652</v>
       </c>
       <c r="B188" t="s">
-        <v>896</v>
+        <v>652</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G188">
         <v>43</v>
@@ -6417,16 +6452,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="B189" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G189">
         <v>43</v>
@@ -6434,16 +6469,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="B190" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G190">
         <v>43</v>
@@ -6451,16 +6486,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="B191" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G191">
         <v>43</v>
@@ -6468,16 +6503,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="B192" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G192">
         <v>43</v>
@@ -6485,16 +6520,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="B193" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>43</v>
@@ -6502,16 +6537,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>628</v>
+        <v>900</v>
       </c>
       <c r="B194" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G194">
         <v>43</v>
@@ -6519,16 +6554,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>629</v>
+        <v>770</v>
       </c>
       <c r="B195" t="s">
-        <v>629</v>
+        <v>899</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G195">
         <v>43</v>
@@ -6536,16 +6571,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="B196" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G196">
         <v>43</v>
@@ -6553,16 +6588,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="B197" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G197">
         <v>43</v>
@@ -6570,16 +6605,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="B198" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G198">
         <v>43</v>
@@ -6587,16 +6622,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>633</v>
+        <v>771</v>
       </c>
       <c r="B199" t="s">
-        <v>633</v>
+        <v>771</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G199">
         <v>43</v>
@@ -6604,16 +6639,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="B200" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G200">
         <v>43</v>
@@ -6621,16 +6656,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="B201" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G201">
         <v>43</v>
@@ -6638,16 +6673,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="B202" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G202">
         <v>43</v>
@@ -6655,16 +6690,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="B203" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G203">
         <v>43</v>
@@ -6672,16 +6707,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="B204" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G204">
         <v>43</v>
@@ -6689,16 +6724,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="B205" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G205">
         <v>43</v>
@@ -6706,16 +6741,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="B206" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G206">
         <v>43</v>
@@ -6723,16 +6758,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="B207" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G207">
         <v>43</v>
@@ -6740,16 +6775,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="B208" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G208">
         <v>43</v>
@@ -6757,16 +6792,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="B209" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G209">
         <v>43</v>
@@ -6774,16 +6809,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>643</v>
+        <v>772</v>
       </c>
       <c r="B210" t="s">
-        <v>643</v>
+        <v>901</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G210">
         <v>43</v>
@@ -6791,16 +6826,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>644</v>
+        <v>775</v>
       </c>
       <c r="B211" t="s">
-        <v>644</v>
+        <v>903</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G211">
         <v>43</v>
@@ -6808,16 +6843,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>645</v>
+        <v>773</v>
       </c>
       <c r="B212" t="s">
-        <v>645</v>
+        <v>773</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G212">
         <v>43</v>
@@ -6825,16 +6860,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>646</v>
+        <v>777</v>
       </c>
       <c r="B213" t="s">
-        <v>646</v>
+        <v>905</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G213">
         <v>43</v>
@@ -6842,16 +6877,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="B214" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G214">
         <v>43</v>
@@ -6859,16 +6894,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="B215" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G215">
         <v>43</v>
@@ -6876,16 +6911,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="B216" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G216">
         <v>43</v>
@@ -6893,16 +6928,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>898</v>
+        <v>675</v>
       </c>
       <c r="B217" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G217">
         <v>43</v>
@@ -6910,16 +6945,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="B218" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G218">
         <v>43</v>
@@ -6927,16 +6962,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="B219" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G219">
         <v>43</v>
@@ -6944,16 +6979,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="B220" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G220">
         <v>43</v>
@@ -6961,16 +6996,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>654</v>
+        <v>774</v>
       </c>
       <c r="B221" t="s">
-        <v>654</v>
+        <v>902</v>
       </c>
       <c r="D221">
         <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>43</v>
@@ -6978,16 +7013,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>655</v>
+        <v>776</v>
       </c>
       <c r="B222" t="s">
-        <v>655</v>
+        <v>904</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G222">
         <v>43</v>
@@ -6995,13 +7030,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="B223" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="s">
         <v>27</v>
@@ -7012,16 +7047,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="B224" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G224">
         <v>43</v>
@@ -7029,16 +7064,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>900</v>
+        <v>681</v>
       </c>
       <c r="B225" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G225">
         <v>43</v>
@@ -7046,16 +7081,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>770</v>
+        <v>682</v>
       </c>
       <c r="B226" t="s">
-        <v>899</v>
+        <v>682</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G226">
         <v>43</v>
@@ -7063,16 +7098,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="B227" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G227">
         <v>43</v>
@@ -7080,550 +7115,23 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="B228" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G228">
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
-        <v>661</v>
-      </c>
-      <c r="B229" t="s">
-        <v>661</v>
-      </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-      <c r="E229" t="s">
-        <v>45</v>
-      </c>
-      <c r="G229">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
-        <v>771</v>
-      </c>
-      <c r="B230" t="s">
-        <v>771</v>
-      </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230" t="s">
-        <v>46</v>
-      </c>
-      <c r="G230">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
-        <v>662</v>
-      </c>
-      <c r="B231" t="s">
-        <v>662</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231" t="s">
-        <v>49</v>
-      </c>
-      <c r="G231">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>663</v>
-      </c>
-      <c r="B232" t="s">
-        <v>663</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232" t="s">
-        <v>54</v>
-      </c>
-      <c r="G232">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
-        <v>664</v>
-      </c>
-      <c r="B233" t="s">
-        <v>664</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233" t="s">
-        <v>39</v>
-      </c>
-      <c r="G233">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
-        <v>665</v>
-      </c>
-      <c r="B234" t="s">
-        <v>665</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-      <c r="E234" t="s">
-        <v>30</v>
-      </c>
-      <c r="G234">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
-        <v>666</v>
-      </c>
-      <c r="B235" t="s">
-        <v>666</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-      <c r="E235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
-        <v>667</v>
-      </c>
-      <c r="B236" t="s">
-        <v>667</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236" t="s">
-        <v>48</v>
-      </c>
-      <c r="G236">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
-        <v>668</v>
-      </c>
-      <c r="B237" t="s">
-        <v>668</v>
-      </c>
-      <c r="D237">
-        <v>0</v>
-      </c>
-      <c r="E237" t="s">
-        <v>39</v>
-      </c>
-      <c r="G237">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
-        <v>669</v>
-      </c>
-      <c r="B238" t="s">
-        <v>669</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
-        <v>670</v>
-      </c>
-      <c r="B239" t="s">
-        <v>670</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-      <c r="E239" t="s">
-        <v>32</v>
-      </c>
-      <c r="G239">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
-        <v>674</v>
-      </c>
-      <c r="B240" t="s">
-        <v>674</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240" t="s">
-        <v>11</v>
-      </c>
-      <c r="G240">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
-        <v>772</v>
-      </c>
-      <c r="B241" t="s">
-        <v>901</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-      <c r="E241" t="s">
-        <v>49</v>
-      </c>
-      <c r="G241">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>775</v>
-      </c>
-      <c r="B242" t="s">
-        <v>903</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242" t="s">
-        <v>47</v>
-      </c>
-      <c r="G242">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
-        <v>773</v>
-      </c>
-      <c r="B243" t="s">
-        <v>773</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
-        <v>777</v>
-      </c>
-      <c r="B244" t="s">
-        <v>905</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244" t="s">
-        <v>43</v>
-      </c>
-      <c r="G244">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
-        <v>671</v>
-      </c>
-      <c r="B245" t="s">
-        <v>671</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
-        <v>672</v>
-      </c>
-      <c r="B246" t="s">
-        <v>672</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G246">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
-        <v>673</v>
-      </c>
-      <c r="B247" t="s">
-        <v>673</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247" t="s">
-        <v>22</v>
-      </c>
-      <c r="G247">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
-        <v>675</v>
-      </c>
-      <c r="B248" t="s">
-        <v>675</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-      <c r="E248" t="s">
-        <v>30</v>
-      </c>
-      <c r="G248">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
-        <v>676</v>
-      </c>
-      <c r="B249" t="s">
-        <v>676</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-      <c r="E249" t="s">
-        <v>17</v>
-      </c>
-      <c r="G249">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
-        <v>677</v>
-      </c>
-      <c r="B250" t="s">
-        <v>677</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-      <c r="E250" t="s">
-        <v>8</v>
-      </c>
-      <c r="G250">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
-        <v>678</v>
-      </c>
-      <c r="B251" t="s">
-        <v>678</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251" t="s">
-        <v>41</v>
-      </c>
-      <c r="G251">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
-        <v>774</v>
-      </c>
-      <c r="B252" t="s">
-        <v>902</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252" t="s">
-        <v>40</v>
-      </c>
-      <c r="G252">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
-        <v>776</v>
-      </c>
-      <c r="B253" t="s">
-        <v>904</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253" t="s">
-        <v>22</v>
-      </c>
-      <c r="G253">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
-        <v>679</v>
-      </c>
-      <c r="B254" t="s">
-        <v>679</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254" t="s">
-        <v>27</v>
-      </c>
-      <c r="G254">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
-        <v>680</v>
-      </c>
-      <c r="B255" t="s">
-        <v>680</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255" t="s">
-        <v>34</v>
-      </c>
-      <c r="G255">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
-        <v>681</v>
-      </c>
-      <c r="B256" t="s">
-        <v>681</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256" t="s">
-        <v>33</v>
-      </c>
-      <c r="G256">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
-        <v>682</v>
-      </c>
-      <c r="B257" t="s">
-        <v>682</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257" t="s">
-        <v>44</v>
-      </c>
-      <c r="G257">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
-        <v>683</v>
-      </c>
-      <c r="B258" t="s">
-        <v>683</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258" t="s">
-        <v>39</v>
-      </c>
-      <c r="G258">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
-        <v>696</v>
-      </c>
-      <c r="B259" t="s">
-        <v>696</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259" t="s">
-        <v>45</v>
-      </c>
-      <c r="G259">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J259"/>
+  <autoFilter ref="A1:J228" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7631,7 +7139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7896,7 +7404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E752"/>
   <sheetViews>
     <sheetView topLeftCell="A751" workbookViewId="0">
